--- a/ddtselenium/datainfo2.xlsx
+++ b/ddtselenium/datainfo2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyy\ddtselenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6720032C-5126-40BA-ADD2-C04AF3E80C96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634AFFC7-3AB8-4201-9E7E-39DFAA27C900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30180" yWindow="4695" windowWidth="28770" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -436,24 +436,33 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
       <c r="C4">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>222</v>
       </c>
     </row>
@@ -462,7 +471,7 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{72FB8234-015A-4F9E-8AF3-5482535885F9}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{53B6250C-4A4F-43C7-8F2F-A32EE3E9AC66}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{E1AA76DC-CF6C-4F1C-BF3A-FAF82711C4AF}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{E1AA76DC-CF6C-4F1C-BF3A-FAF82711C4AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
